--- a/results/lambdas_favorite_first_True.xlsx
+++ b/results/lambdas_favorite_first_True.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE976876-049A-4785-A705-F413815F14F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -35,11 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,26 +75,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,27 +164,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,24 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,153 +373,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.80740824721653215</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.80740824721954618</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2-C2</f>
-        <v>-3.014033467252375E-12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8074082472165321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.84973047996782469</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.84973047996858342</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">B3-C3</f>
-        <v>-7.5872641502883198E-13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8497304799678247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
         <v>0.814187526918283</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.81418752691823881</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.418687638008123E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.91619589693810122</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.91619589693777115</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3006930522105904E-13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.9161958969381012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.85233905302604052</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.85233905302532897</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1154193648226283E-13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8523390530260405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.84294020824022464</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.84294020823993532</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8932412021731579E-13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8429402082402246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.89200956679503118</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.89200956679512733</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.6145313932538556E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8920095667950312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.86741924293870465</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.8674192429385863</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1834977442504169E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8674192429387046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.83326349972179015</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.83326349971775948</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0306646909016308E-12</v>
+        <v>0.8332634997217901</v>
       </c>
     </row>
   </sheetData>

--- a/results/lambdas_favorite_first_True.xlsx
+++ b/results/lambdas_favorite_first_True.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +406,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.814187526918283</v>
+        <v>0.815292004701621</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -455,6 +455,14 @@
       </c>
       <c r="B10">
         <v>0.8332634997217901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.8710087939393788</v>
       </c>
     </row>
   </sheetData>
